--- a/ZDD Bb4A Final-Project-Plan.xlsx
+++ b/ZDD Bb4A Final-Project-Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPA\01 CPR101\cpr v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1DF45E-4A50-44E9-8B6D-5F55B910B72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22C88DF-34E1-4D1A-9CFF-31F00AD06478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8E31B3C-F149-45D6-99B7-2CDC65D256FF}"/>
   </bookViews>
@@ -636,10 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
-  <si>
-    <t>TO DO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
   <si>
     <t>SMART goals ==&gt;</t>
   </si>
@@ -882,32 +879,6 @@
   </si>
   <si>
     <t>Your Project Mgmt notes on what each Process Group means to you when doing this project.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">REPLACE THIS 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>with your action items and work breakdown structure for this Version</t>
-    </r>
   </si>
   <si>
     <t>Request review of this file:
@@ -1255,6 +1226,27 @@
   </si>
   <si>
     <t xml:space="preserve">8 aug wedusday </t>
+  </si>
+  <si>
+    <t>12 aug Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 aug Saturday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hrs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5hr </t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aug 13 2023     Sunday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">august  13 ,  2023     Sunday </t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1628,9 +1620,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1705,6 +1694,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2329,10 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2355,7 @@
     <col min="16" max="16" width="12.109375" style="20" customWidth="1"/>
     <col min="17" max="17" width="25.6640625" style="2" customWidth="1"/>
     <col min="18" max="18" width="28.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" style="20" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.6640625" style="20" customWidth="1"/>
     <col min="21" max="21" width="12.109375" style="20" customWidth="1"/>
     <col min="22" max="23" width="25.6640625" style="2" customWidth="1"/>
@@ -2371,228 +2367,230 @@
   <sheetData>
     <row r="1" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="40" t="str">
+      <c r="F2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="39" t="str">
         <f>B2</f>
         <v>Specific 
 tasks and WBS</v>
       </c>
-      <c r="H2" s="40" t="str">
+      <c r="H2" s="39" t="str">
         <f>C2</f>
         <v>How is deliverable Measured? 
 Is delivery criteria Agreed?</v>
       </c>
-      <c r="I2" s="40" t="str">
+      <c r="I2" s="39" t="str">
         <f>D2</f>
         <v>Realistic
 planned hours 
 actual hours</v>
       </c>
-      <c r="J2" s="40" t="str">
+      <c r="J2" s="39" t="str">
         <f>E2</f>
         <v>planned date &amp; Time
 of delivery
 actual
 date &amp; time</v>
       </c>
-      <c r="K2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="40" t="str">
+      <c r="K2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="39" t="str">
         <f t="shared" ref="L2:T2" si="0">G2</f>
         <v>Specific 
 tasks and WBS</v>
       </c>
-      <c r="M2" s="40" t="str">
+      <c r="M2" s="39" t="str">
         <f t="shared" si="0"/>
         <v>How is deliverable Measured? 
 Is delivery criteria Agreed?</v>
       </c>
-      <c r="N2" s="40" t="str">
+      <c r="N2" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Realistic
 planned hours 
 actual hours</v>
       </c>
-      <c r="O2" s="40" t="str">
+      <c r="O2" s="39" t="str">
         <f t="shared" si="0"/>
         <v>planned date &amp; Time
 of delivery
 actual
 date &amp; time</v>
       </c>
-      <c r="P2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="40" t="str">
+      <c r="P2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Specific 
 tasks and WBS</v>
       </c>
-      <c r="R2" s="40" t="str">
+      <c r="R2" s="39" t="str">
         <f t="shared" si="0"/>
         <v>How is deliverable Measured? 
 Is delivery criteria Agreed?</v>
       </c>
-      <c r="S2" s="40" t="str">
+      <c r="S2" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Realistic
 planned hours 
 actual hours</v>
       </c>
-      <c r="T2" s="40" t="str">
+      <c r="T2" s="39" t="str">
         <f t="shared" si="0"/>
         <v>planned date &amp; Time
 of delivery
 actual
 date &amp; time</v>
       </c>
-      <c r="U2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="40" t="s">
+      <c r="U2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="40" t="s">
+      <c r="Y2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="40" t="s">
-        <v>33</v>
+      <c r="Z2" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="A3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37">
         <v>45131.999988425923</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>11</v>
+      <c r="G3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="4">
         <v>9</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="33" t="s">
-        <v>11</v>
+      <c r="K3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="O3" s="4">
         <v>14</v>
       </c>
-      <c r="P3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="37">
-        <v>44909.999988425923</v>
-      </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="34"/>
+      <c r="P3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="4">
+        <v>21</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="33"/>
     </row>
     <row r="4" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="21" t="str">
@@ -2602,20 +2600,20 @@
 Jul.26</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" s="4" t="str">
         <f>G4</f>
@@ -2628,7 +2626,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="4"/>
       <c r="P4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f>L4</f>
@@ -2639,8 +2637,12 @@
         <v>see Programming Comments and Programming Test Cases docs for acceptance criteria. See Project Overview - Appendix B for deliverables</v>
       </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="50">
+        <v>45149</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="V4" s="4"/>
       <c r="W4" s="11"/>
       <c r="X4" s="7"/>
@@ -2649,421 +2651,442 @@
     </row>
     <row r="5" spans="1:26" s="14" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="12">
         <v>1.5</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="12">
         <v>2</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="24"/>
       <c r="P5" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="T5" s="24"/>
       <c r="U5" s="10" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X5" s="13"/>
-      <c r="Y5" s="24" t="str">
-        <f>IF(($W$3+Y$3-2)&lt;$W$3,(TEXT(($W$3+Y$3-2),"dddd
-") &amp; TEXT(($W$3+Y$3-2),"mmm.d")),(TEXT($W$3,"dddd
-") &amp; TEXT($W$3,"mmm.d")))</f>
-        <v>Monday
-Dec.12</v>
+      <c r="Y5" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="24"/>
       <c r="P6" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="24"/>
       <c r="U6" s="10" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="24"/>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:26" s="16" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="O7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>78</v>
-      </c>
       <c r="P7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="S7" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="T7" s="24"/>
-      <c r="U7" s="18"/>
+      <c r="U7" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="24" t="str">
-        <f>IF(WORKDAY($W$3,Y$3-1)&lt;$W$3,(TEXT(WORKDAY($W$3,Y$3-1),"dddd
-") &amp; TEXT(WORKDAY($W$3,Y$3-1),"mmm.d")),(TEXT($W$3,"dddd
-") &amp; TEXT($W$3,"mmm.d")))</f>
-        <v>Tuesday
-Dec.13</v>
-      </c>
-      <c r="Z7" s="12"/>
+      <c r="Y7" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:26" s="16" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="12">
         <v>2</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="P8" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="18"/>
+      <c r="S8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
-      <c r="Y8" s="24" t="str">
-        <f>IF(WORKDAY($W$3,Y$3-1)&lt;$W$3,(TEXT(WORKDAY($W$3,Y$3-1),"dddd
-") &amp; TEXT(WORKDAY($W$3,Y$3-1),"mmm.d")),(TEXT($W$3,"dddd
-") &amp; TEXT($W$3,"mmm.d")))</f>
-        <v>Tuesday
-Dec.13</v>
-      </c>
-      <c r="Z8" s="12"/>
+      <c r="Y8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:26" s="16" customFormat="1" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>68</v>
+      <c r="A9" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="12">
         <v>2.5</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="18"/>
+      <c r="S9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
-      <c r="Y9" s="24" t="str">
-        <f>IF(WORKDAY($W$3,Y$3-1)&lt;$W$3,(TEXT(WORKDAY($W$3,Y$3-1),"dddd
-") &amp; TEXT(WORKDAY($W$3,Y$3-1),"mmm.d")),(TEXT($W$3,"dddd
-") &amp; TEXT($W$3,"mmm.d")))</f>
-        <v>Tuesday
-Dec.13</v>
-      </c>
-      <c r="Z9" s="12"/>
+      <c r="Y9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:26" s="16" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I10" s="12">
         <v>1.5</v>
       </c>
       <c r="J10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="O10" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="49">
+        <v>45151</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
-      <c r="Y10" s="27" t="str">
-        <f>IF(WORKDAY($W$3,Y$3)&lt;$W$3,(TEXT(WORKDAY($W$3,Y$3),"dddd
-") &amp; TEXT(WORKDAY($W$3,Y$3),"mmm.d")),(TEXT($W$3,"dddd
-") &amp; TEXT($W$3,"mmm.d")))</f>
-        <v>Wednesday
-Dec.14</v>
-      </c>
-      <c r="Z10" s="12"/>
+      <c r="Y10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:26" s="13" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="T11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="28" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="14" customFormat="1" ht="216" x14ac:dyDescent="0.3">
@@ -3071,26 +3094,26 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="H12" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="26" t="s">
-        <v>21</v>
+      <c r="T12" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="U12" s="19"/>
       <c r="X12" s="19"/>
-      <c r="Y12" s="26" t="s">
-        <v>19</v>
+      <c r="Y12" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="Z12" s="19"/>
     </row>
@@ -3255,6 +3278,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B90431BC0474204BA5DF53F8B381F09C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d23921bee26f7e8e234dce1810f7ceb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f6759040-d046-4ead-920a-51d0beeee03a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd603e977374980299e2cd712a562e99" ns2:_="">
     <xsd:import namespace="f6759040-d046-4ead-920a-51d0beeee03a"/>
@@ -3406,15 +3438,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3422,6 +3445,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01F5A318-42C9-4C39-8A11-FB54C76782C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3435,14 +3466,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
